--- a/Periodo 3/Séries Temporais/planilha1.xlsx
+++ b/Periodo 3/Séries Temporais/planilha1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\01 - Faculdade de Ciência de Dados\Uni-DS-Codes\Periodo 3\Séries Temporais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1782A-B383-4821-9652-61B7C5FCD01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F49A5B8-9945-4A42-BDD5-B2F877D89319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pimm" sheetId="1" r:id="rId1"/>
@@ -887,9 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B181"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2353,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123056DF-3236-4E5E-824A-3A3D641823F1}">
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3807,12 +3805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004986E7566BB0CA4A993677B08A7E1E72" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5023623800014b87a9855713c311f097">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="043b980a-c15e-476e-9617-1e826b786499" xmlns:ns3="3c6008ff-7356-4b8c-8dd4-6d10bf0c1e9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db878b4a2b6e9150ba5ae30d577cdf0e" ns2:_="" ns3:_="">
     <xsd:import namespace="043b980a-c15e-476e-9617-1e826b786499"/>
@@ -4009,6 +4001,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4019,15 +4017,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104474B0-785F-4730-8202-2ED78A72945F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE3442EB-5864-4092-9D3C-7CE0F375C71B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4046,6 +4035,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104474B0-785F-4730-8202-2ED78A72945F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFDBC9A-E861-4432-BFCE-C0D333A3B6B2}">
   <ds:schemaRefs>
